--- a/rep.xlsx
+++ b/rep.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>胜率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,16 +73,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v4-08.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v4-08.07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v4-08.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>v5-08.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6-08.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=V3+正确的config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6-08.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6-08.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6-08.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v6-08.13</t>
+  </si>
+  <si>
+    <t>v6-08.14</t>
   </si>
 </sst>
 </file>
@@ -128,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,6 +163,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,10 +464,11 @@
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -454,8 +487,9 @@
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,8 +515,9 @@
         <f t="shared" ref="G2" si="0">E2/(E2+F2)</f>
         <v>0.48717948717948717</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -493,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D10" si="1">B3/(B3+C3)</f>
+        <f t="shared" ref="D3:D8" si="1">B3/(B3+C3)</f>
         <v>0.53061224489795922</v>
       </c>
       <c r="E3" s="3">
@@ -508,8 +543,9 @@
         <f t="shared" ref="G3:G5" si="3">E3/(E3+F3)</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,8 +571,9 @@
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -562,8 +599,11 @@
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -589,8 +629,9 @@
         <f t="shared" ref="G6" si="4">E6/(E6+F6)</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -616,8 +657,9 @@
         <f t="shared" ref="G7" si="7">E7/(E7+F7)</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -632,97 +674,238 @@
         <v>0.55140186915887845</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8" si="8">B8-B7</f>
+        <f>B8-B7</f>
         <v>7</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8" si="9">C8-C7</f>
+        <f t="shared" ref="F8" si="8">C8-C7</f>
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8" si="10">E8/(E8+F8)</f>
+        <f t="shared" ref="G8" si="9">E8/(E8+F8)</f>
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.55084745762711862</v>
+        <f>B9/(B9+C9)</f>
+        <v>0.54471544715447151</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ref="E9" si="11">B9-B8</f>
-        <v>6</v>
+        <f t="shared" ref="E9" si="10">B9-B8</f>
+        <v>8</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ref="F9" si="12">C9-C8</f>
-        <v>5</v>
+        <f t="shared" ref="F9" si="11">C9-C8</f>
+        <v>8</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9" si="13">E9/(E9+F9)</f>
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G9" si="12">E9/(E9+F9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.54471544715447151</v>
+        <f t="shared" ref="D10:D11" si="13">B10/(B10+C10)</f>
+        <v>0.53435114503816794</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10" si="14">B10-B9</f>
-        <v>2</v>
+        <f t="shared" ref="E10:F12" si="14">B10-B9</f>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10" si="15">C10-C9</f>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G10" si="16">E10/(E10+F10)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G10" si="15">E10/(E10+F10)</f>
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11" si="17">B11/(B11+C11)</f>
-        <v>0.54471544715447151</v>
+        <f t="shared" si="13"/>
+        <v>0.54304635761589404</v>
       </c>
       <c r="E11" s="3">
-        <f>B11-B10</f>
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11" si="16">E11/(E11+F11)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="17">B12/(B12+C12)</f>
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" ref="F11" si="18">C11-C10</f>
+      <c r="G12" s="2">
+        <f>E12/(E12+F12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>88</v>
+      </c>
+      <c r="C13" s="3">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="18">B13/(B13+C13)</f>
+        <v>0.55345911949685533</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="19">B13-B12</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="20">C13-C12</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <f>E13/(E13+F13)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="21">B14/(B14+C14)</f>
+        <v>0.55487804878048785</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ref="E14" si="22">B14-B13</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14" si="23">C14-C13</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <f>E14/(E14+F14)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="24">B15/(B15+C15)</f>
+        <v>0.56804733727810652</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15" si="25">B15-B14</f>
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ref="F15" si="26">C15-C14</f>
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="e">
-        <f t="shared" ref="G11" si="19">E11/(E11+F11)</f>
-        <v>#DIV/0!</v>
+      <c r="G15" s="2">
+        <f>E15/(E15+F15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <v>99</v>
+      </c>
+      <c r="C16" s="3">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16" si="27">B16/(B16+C16)</f>
+        <v>0.56896551724137934</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ref="E16" si="28">B16-B15</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16" si="29">C16-C15</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <f>E16/(E16+F16)</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
